--- a/biology/Biochimie/Cadhérine/Cadhérine.xlsx
+++ b/biology/Biochimie/Cadhérine/Cadhérine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cadh%C3%A9rine</t>
+          <t>Cadhérine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cadhérines (ou CDH) sont une classe de glycoprotéines, de taille comprise entre 120 et 140 kDa, qui s'expriment à la surface cellulaire. Elles jouent un rôle important dans l'adhésion cellulaire, ce qui fait qu'elles assurent la liaison intercellulaire au sein des tissus. Leur fonctionnement dépend des ions calcium (Ca2+), d'où leur nom.
 La superfamille des cadhérines comprend les cadhérines, les protocadhérines, les cadhérines desmosomales comme les desmogléines et les desmocollines, etc. D'un point de vue structurel, elles partagent des « séquences cadhérine », qui sont les domaines de liaison extracellulaires du Ca2+.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cadh%C3%A9rine</t>
+          <t>Cadhérine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de protéines transmembranaires qui possèdent :
 une extrémité N-terminale extracellulaire ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cadh%C3%A9rine</t>
+          <t>Cadhérine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cadhérines vont former soit des jonctions adhérente soit des desmosomes. 
 Dans le premier cas elles seront liées en intracellulaire à des caténines. Les caténines vont servir d'intermédiaire de liaison avec le cytosquelette. Les cadhérines sont fixées aux β et γ-caténine, elles-mêmes fixées à α-caténine qui vient se fixer aux filaments d'actine du cytosquelette.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cadh%C3%A9rine</t>
+          <t>Cadhérine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Les différents types de cadhérines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'E-cadhérine (épithéliale)  est probablement la cadhérine la mieux connue et constitue un marqueur tumoral dans certains cancers.
 La P-cadhérine, exprimée dans le trophoblaste, le cœur, les poumons et l'intestin
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cadh%C3%A9rine</t>
+          <t>Cadhérine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Exemple de Pathologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Pemphigus Vulgaris est une maladie auto-immune causée par  des anti-corps dirigés contre les desmogléines. Ces dernières ne peuvent donc plus jouer leur rôle dans l'adhérence inter-cellulaire, ce qui va provoquer une dissociation des cellules de l'épiderme et entraîner la formation de vésicules cutanées au niveau de la peau.
 Les cadhérines sont la porte d'entrée d'agents pathogènes comme la Listéria (maladie infectieuse) et sont également source de cancer car les cellules, sous l'action de métalloprotéinases, perdent leur cadhérine ce qui est à l'origine de métastases.
